--- a/files/excel/GeneralCode2.xlsx
+++ b/files/excel/GeneralCode2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Learn\project3\files\fileocr\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Newfolderr\RPAAutomation\files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3E0B5C-E539-4B9A-8D4F-11180C16912B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -76,7 +75,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -100,13 +100,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:D3" totalsRowShown="0">
-  <autoFilter ref="A2:D3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:D3" totalsRowShown="0">
+  <autoFilter ref="A2:D3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Code"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="IsEditable"/>
+    <tableColumn id="1" name="No"/>
+    <tableColumn id="2" name="Code"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="IsEditable"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -396,25 +396,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E9"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -430,6 +430,9 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
